--- a/data_analysis/DataAnalysisCrudeRefined (Scatter Plot).xlsx
+++ b/data_analysis/DataAnalysisCrudeRefined (Scatter Plot).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\ds_project\data_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Crude Price Scatter Plots" sheetId="2" r:id="rId2"/>
+    <sheet name="Refined Price Scatter Plots" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -181,6 +183,1384 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311293</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311293</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311293</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3048000"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311293</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311293</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="6096000"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311293</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9144000"/>
+          <a:ext cx="4578493" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="9144000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12192000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="12192000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15240000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="15240000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18288000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="18288000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21336000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="21336000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24384000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="24384000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3048000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="6096000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9144000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="9144000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12192000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="12192000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15240000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="15240000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18288000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="18288000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21336000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="21336000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24384000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="24384000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,11 +4893,41 @@
         <v>34</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B40:B42" si="2">AVERAGE(J37:AA37)</f>
+        <f t="shared" ref="B42" si="2">AVERAGE(J37:AA37)</f>
         <v>9.4790111948993283E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="Q130" sqref="Q130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_analysis/DataAnalysisCrudeRefined (Scatter Plot).xlsx
+++ b/data_analysis/DataAnalysisCrudeRefined (Scatter Plot).xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\ds_project\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Crude Price Scatter Plots" sheetId="2" r:id="rId2"/>
-    <sheet name="Refined Price Scatter Plots" sheetId="3" r:id="rId3"/>
+    <sheet name="Crude Price Change CPI Plots" sheetId="2" r:id="rId2"/>
+    <sheet name="Refined Price Change PPI Plots" sheetId="5" r:id="rId3"/>
+    <sheet name="General Trends" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Year</t>
   </si>
@@ -103,34 +104,58 @@
     <t>Refined Variance</t>
   </si>
   <si>
-    <t>CRUDE CORRELATION</t>
-  </si>
-  <si>
-    <t>REFINED CORRELATION</t>
-  </si>
-  <si>
-    <t>Crude R Squared</t>
-  </si>
-  <si>
-    <t>Refined R Squared</t>
-  </si>
-  <si>
     <t>Crude Percentage Difference</t>
   </si>
   <si>
     <t>Refined Oil Percent Difference</t>
   </si>
   <si>
-    <t>Average Crude Correlation:</t>
+    <t>Crude foodstuffs and feedstuffs PPI</t>
   </si>
   <si>
-    <t>Average Refined Correclation</t>
+    <t>Farm Level Cattle PPI</t>
   </si>
   <si>
-    <t>Average Crude R Squared</t>
+    <t>Farm Level Eggs PPI</t>
   </si>
   <si>
-    <t>Average Refined R Squared</t>
+    <t>Farm Level Fruit PPI</t>
+  </si>
+  <si>
+    <t>Farm Level Milk PPI</t>
+  </si>
+  <si>
+    <t>Farm Level Soybeans PPI</t>
+  </si>
+  <si>
+    <t>Farm Level Vegetables PPI</t>
+  </si>
+  <si>
+    <t>Farm Level Wheat PPI</t>
+  </si>
+  <si>
+    <t>Finished Consumer Foods PPI</t>
+  </si>
+  <si>
+    <t>Intermediate Foods and Feeds PPI</t>
+  </si>
+  <si>
+    <t>Wholesale Beef PPI</t>
+  </si>
+  <si>
+    <t>Wholesale Dairy PPI</t>
+  </si>
+  <si>
+    <t>Wholesale Fats and Oils PPI</t>
+  </si>
+  <si>
+    <t>Wholesale Pork PPI</t>
+  </si>
+  <si>
+    <t>Wholesale Poulty PPI</t>
+  </si>
+  <si>
+    <t>Wholesale Wheat Flour PPI</t>
   </si>
 </sst>
 </file>
@@ -185,7 +210,4732 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Yearly PPI Values For Agricultural Products (1986-2016)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crude foodstuffs and feedstuffs PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AB$2:$AB$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-17.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1970722214851399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farm Level Cattle PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AC$2:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6047760902476096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-19.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farm Level Eggs PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AD$2:$AD$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-26.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-26.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.36902329382917</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-59.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farm Level Fruit PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AE$2:$AE$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-11.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1186632681959801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farm Level Milk PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AF$2:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-18.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-14.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-30.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.1137923400487004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-30.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farm Level Soybeans PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AG$2:$AG$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-21.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-21.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.1896486301889</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-24.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farm Level Vegetables PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AH$2:$AH$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-15.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-19.788197113331599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farm Level Wheat PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AI$2:$AI$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-12.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.6331007363429801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-20.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Finished Consumer Foods PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AJ$2:$AJ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intermediate Foods and Feeds PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AK$2:$AK$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7571595684762</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wholesale Beef PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AL$2:$AL$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.9875501452482904</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wholesale Dairy PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AM$2:$AM$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.56117066530541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wholesale Fats and Oils PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AN$2:$AN$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-23.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-23.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.96239204110636</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wholesale Pork PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AO$2:$AO$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-21.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.1051756391602803</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-23.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wholesale Poulty PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AP$2:$AP$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.1642178556676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AQ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wholesale Wheat Flour PPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AQ$2:$AQ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-13.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0307395307395</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="514675360"/>
+        <c:axId val="514671832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="514675360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514671832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514671832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PPI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Va</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>lue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514675360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -874,7 +5624,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -891,7 +5641,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="20" name="Picture 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -929,7 +5679,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="21" name="Picture 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -956,18 +5706,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>88631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="23" name="Picture 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -980,7 +5730,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3048000"/>
+          <a:off x="0" y="2857500"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -994,18 +5744,18 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>88631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1018,7 +5768,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="3048000"/>
+          <a:off x="4876800" y="2857500"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1032,18 +5782,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>88631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="25" name="Picture 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1056,7 +5806,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6096000"/>
+          <a:off x="0" y="5715000"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1070,18 +5820,18 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>88631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="27" name="Picture 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1094,8 +5844,469 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="6096000"/>
+          <a:off x="4876800" y="5715000"/>
           <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8763000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="8763000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11811000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="11811000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14859000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="14859000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17907000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="17907000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20955000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="20955000"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412639</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="38100"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176831</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="2981325"/>
+          <a:ext cx="9339881" cy="5310076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,20 +6323,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>195881</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>166576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1133,425 +6344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9144000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="9144000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12192000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="12192000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="15240000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="15240000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="18288000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="18288000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="21336000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="21336000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="24384000"/>
-          <a:ext cx="4584589" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317389</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>88631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="24384000"/>
-          <a:ext cx="4584589" cy="2755631"/>
+          <a:ext cx="9339881" cy="5310076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1826,10 +6619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA1" activeCellId="17" sqref="J1:J1048576 K1:K1048576 L1:L1048576 M1:M1048576 N1:N1048576 O1:O1048576 P1:P1048576 Q1:Q1048576 R1:R1048576 S1:S1048576 T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576 X1:X1048576 Y1:Y1048576 Z1:Z1048576 AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,9 +6634,24 @@
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
     <col min="27" max="28" width="19.140625" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" customWidth="1"/>
+    <col min="30" max="30" width="20.140625" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" customWidth="1"/>
+    <col min="34" max="34" width="18.42578125" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" customWidth="1"/>
+    <col min="36" max="36" width="23.85546875" customWidth="1"/>
+    <col min="37" max="37" width="28.85546875" customWidth="1"/>
+    <col min="38" max="38" width="18.85546875" customWidth="1"/>
+    <col min="39" max="39" width="16" customWidth="1"/>
+    <col min="40" max="40" width="22.7109375" customWidth="1"/>
+    <col min="41" max="41" width="18.28515625" customWidth="1"/>
+    <col min="42" max="42" width="19" customWidth="1"/>
+    <col min="43" max="43" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1863,7 +6671,7 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>23</v>
@@ -1925,8 +6733,56 @@
       <c r="AA1" t="s">
         <v>19</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -2002,8 +6858,56 @@
       <c r="AA2">
         <v>3</v>
       </c>
+      <c r="AB2">
+        <v>-1.7</v>
+      </c>
+      <c r="AC2">
+        <v>-2.1</v>
+      </c>
+      <c r="AD2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AE2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF2">
+        <v>-2.9</v>
+      </c>
+      <c r="AG2">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AH2">
+        <v>-1.7</v>
+      </c>
+      <c r="AI2">
+        <v>-12.9</v>
+      </c>
+      <c r="AJ2">
+        <v>2.6</v>
+      </c>
+      <c r="AK2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>-2.4</v>
+      </c>
+      <c r="AM2">
+        <v>-0.3</v>
+      </c>
+      <c r="AN2">
+        <v>-23.1</v>
+      </c>
+      <c r="AO2">
+        <v>12.1</v>
+      </c>
+      <c r="AP2">
+        <v>5.8</v>
+      </c>
+      <c r="AQ2">
+        <v>-5.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1987</v>
       </c>
@@ -2087,8 +6991,56 @@
       <c r="AA3">
         <v>1.8</v>
       </c>
+      <c r="AB3">
+        <v>3.2</v>
+      </c>
+      <c r="AC3">
+        <v>15.1</v>
+      </c>
+      <c r="AD3">
+        <v>-12</v>
+      </c>
+      <c r="AE3">
+        <v>-0.8</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>6.1</v>
+      </c>
+      <c r="AI3">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AJ3">
+        <v>2.1</v>
+      </c>
+      <c r="AK3">
+        <v>3.1</v>
+      </c>
+      <c r="AL3">
+        <v>8.4</v>
+      </c>
+      <c r="AM3">
+        <v>1.7</v>
+      </c>
+      <c r="AN3">
+        <v>1.5</v>
+      </c>
+      <c r="AO3">
+        <v>5</v>
+      </c>
+      <c r="AP3">
+        <v>-11.4</v>
+      </c>
+      <c r="AQ3">
+        <v>-1.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1988</v>
       </c>
@@ -2172,8 +7124,56 @@
       <c r="AA4">
         <v>2.7</v>
       </c>
+      <c r="AB4">
+        <v>10.3</v>
+      </c>
+      <c r="AC4">
+        <v>6.5</v>
+      </c>
+      <c r="AD4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>1.3</v>
+      </c>
+      <c r="AF4">
+        <v>-2.7</v>
+      </c>
+      <c r="AG4">
+        <v>41.3</v>
+      </c>
+      <c r="AH4">
+        <v>1.6</v>
+      </c>
+      <c r="AI4">
+        <v>28.7</v>
+      </c>
+      <c r="AJ4">
+        <v>2.8</v>
+      </c>
+      <c r="AK4">
+        <v>10.4</v>
+      </c>
+      <c r="AL4">
+        <v>6.2</v>
+      </c>
+      <c r="AM4">
+        <v>0.6</v>
+      </c>
+      <c r="AN4">
+        <v>19.7</v>
+      </c>
+      <c r="AO4">
+        <v>-9.4</v>
+      </c>
+      <c r="AP4">
+        <v>7.8</v>
+      </c>
+      <c r="AQ4">
+        <v>13.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1989</v>
       </c>
@@ -2257,8 +7257,56 @@
       <c r="AA5">
         <v>4.7</v>
       </c>
+      <c r="AB5">
+        <v>4.8</v>
+      </c>
+      <c r="AC5">
+        <v>3.9</v>
+      </c>
+      <c r="AD5">
+        <v>35</v>
+      </c>
+      <c r="AE5">
+        <v>-0.3</v>
+      </c>
+      <c r="AF5">
+        <v>10.5</v>
+      </c>
+      <c r="AG5">
+        <v>-8.4</v>
+      </c>
+      <c r="AH5">
+        <v>10.6</v>
+      </c>
+      <c r="AI5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>5.4</v>
+      </c>
+      <c r="AK5">
+        <v>3.9</v>
+      </c>
+      <c r="AL5">
+        <v>7.4</v>
+      </c>
+      <c r="AM5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AN5">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="AO5">
+        <v>2.8</v>
+      </c>
+      <c r="AP5">
+        <v>7.9</v>
+      </c>
+      <c r="AQ5">
+        <v>8.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -2342,8 +7390,56 @@
       <c r="AA6">
         <v>4.4000000000000004</v>
       </c>
+      <c r="AB6">
+        <v>1.7</v>
+      </c>
+      <c r="AC6">
+        <v>7.6</v>
+      </c>
+      <c r="AD6">
+        <v>-1.7</v>
+      </c>
+      <c r="AE6">
+        <v>4.3</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>-11.8</v>
+      </c>
+      <c r="AH6">
+        <v>1.2</v>
+      </c>
+      <c r="AI6">
+        <v>-20</v>
+      </c>
+      <c r="AJ6">
+        <v>4.8</v>
+      </c>
+      <c r="AK6">
+        <v>-0.4</v>
+      </c>
+      <c r="AL6">
+        <v>6.5</v>
+      </c>
+      <c r="AM6">
+        <v>6</v>
+      </c>
+      <c r="AN6">
+        <v>6.5</v>
+      </c>
+      <c r="AO6">
+        <v>22.6</v>
+      </c>
+      <c r="AP6">
+        <v>-5.6</v>
+      </c>
+      <c r="AQ6">
+        <v>-9.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1991</v>
       </c>
@@ -2427,8 +7523,56 @@
       <c r="AA7">
         <v>3.7</v>
       </c>
+      <c r="AB7">
+        <v>-6.7</v>
+      </c>
+      <c r="AC7">
+        <v>-5.5</v>
+      </c>
+      <c r="AD7">
+        <v>-5.9</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <v>-11.2</v>
+      </c>
+      <c r="AG7">
+        <v>-5.7</v>
+      </c>
+      <c r="AH7">
+        <v>-12.1</v>
+      </c>
+      <c r="AI7">
+        <v>-9.4</v>
+      </c>
+      <c r="AJ7">
+        <v>-0.2</v>
+      </c>
+      <c r="AK7">
+        <v>-1.9</v>
+      </c>
+      <c r="AL7">
+        <v>-3.3</v>
+      </c>
+      <c r="AM7">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AN7">
+        <v>-6.2</v>
+      </c>
+      <c r="AO7">
+        <v>-5.3</v>
+      </c>
+      <c r="AP7">
+        <v>-3.3</v>
+      </c>
+      <c r="AQ7">
+        <v>-6.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1992</v>
       </c>
@@ -2512,8 +7656,56 @@
       <c r="AA8">
         <v>2.9</v>
       </c>
+      <c r="AB8">
+        <v>-0.4</v>
+      </c>
+      <c r="AC8">
+        <v>-0.3</v>
+      </c>
+      <c r="AD8">
+        <v>-15</v>
+      </c>
+      <c r="AE8">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AF8">
+        <v>7.4</v>
+      </c>
+      <c r="AG8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH8">
+        <v>10.8</v>
+      </c>
+      <c r="AI8">
+        <v>24.1</v>
+      </c>
+      <c r="AJ8">
+        <v>-0.6</v>
+      </c>
+      <c r="AK8">
+        <v>-0.4</v>
+      </c>
+      <c r="AL8">
+        <v>-2.4</v>
+      </c>
+      <c r="AM8">
+        <v>2.9</v>
+      </c>
+      <c r="AN8">
+        <v>-2.9</v>
+      </c>
+      <c r="AO8">
+        <v>-12.8</v>
+      </c>
+      <c r="AP8">
+        <v>-0.8</v>
+      </c>
+      <c r="AQ8">
+        <v>13.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1993</v>
       </c>
@@ -2597,8 +7789,56 @@
       <c r="AA9">
         <v>0.2</v>
       </c>
+      <c r="AB9">
+        <v>3.1</v>
+      </c>
+      <c r="AC9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD9">
+        <v>12.5</v>
+      </c>
+      <c r="AE9">
+        <v>0.6</v>
+      </c>
+      <c r="AF9">
+        <v>-2.1</v>
+      </c>
+      <c r="AG9">
+        <v>7.7</v>
+      </c>
+      <c r="AH9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AI9">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ9">
+        <v>1.9</v>
+      </c>
+      <c r="AK9">
+        <v>1.8</v>
+      </c>
+      <c r="AL9">
+        <v>3.1</v>
+      </c>
+      <c r="AM9">
+        <v>0.2</v>
+      </c>
+      <c r="AN9">
+        <v>7.4</v>
+      </c>
+      <c r="AO9">
+        <v>6.9</v>
+      </c>
+      <c r="AP9">
+        <v>2.5</v>
+      </c>
+      <c r="AQ9">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1994</v>
       </c>
@@ -2682,8 +7922,56 @@
       <c r="AA10">
         <v>1.3</v>
       </c>
+      <c r="AB10">
+        <v>-1.8</v>
+      </c>
+      <c r="AC10">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AD10">
+        <v>-7.6</v>
+      </c>
+      <c r="AE10">
+        <v>-2.1</v>
+      </c>
+      <c r="AF10">
+        <v>1.7</v>
+      </c>
+      <c r="AG10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH10">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AI10">
+        <v>6.5</v>
+      </c>
+      <c r="AJ10">
+        <v>0.9</v>
+      </c>
+      <c r="AK10">
+        <v>1.9</v>
+      </c>
+      <c r="AL10">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AM10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN10">
+        <v>16.2</v>
+      </c>
+      <c r="AO10">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AP10">
+        <v>2.7</v>
+      </c>
+      <c r="AQ10">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1995</v>
       </c>
@@ -2767,8 +8055,56 @@
       <c r="AA11">
         <v>1.7</v>
       </c>
+      <c r="AB11">
+        <v>-0.7</v>
+      </c>
+      <c r="AC11">
+        <v>-6</v>
+      </c>
+      <c r="AD11">
+        <v>6.4</v>
+      </c>
+      <c r="AE11">
+        <v>3.7</v>
+      </c>
+      <c r="AF11">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AG11">
+        <v>-3.6</v>
+      </c>
+      <c r="AH11">
+        <v>11.9</v>
+      </c>
+      <c r="AI11">
+        <v>13.2</v>
+      </c>
+      <c r="AJ11">
+        <v>1.7</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>-2.6</v>
+      </c>
+      <c r="AM11">
+        <v>0.3</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11">
+        <v>0.1</v>
+      </c>
+      <c r="AP11">
+        <v>-0.4</v>
+      </c>
+      <c r="AQ11">
+        <v>11.4</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1996</v>
       </c>
@@ -2852,8 +8188,56 @@
       <c r="AA12">
         <v>4.5</v>
       </c>
+      <c r="AB12">
+        <v>14.8</v>
+      </c>
+      <c r="AC12">
+        <v>-3.7</v>
+      </c>
+      <c r="AD12">
+        <v>25.6</v>
+      </c>
+      <c r="AE12">
+        <v>17.5</v>
+      </c>
+      <c r="AF12">
+        <v>15.3</v>
+      </c>
+      <c r="AG12">
+        <v>25.1</v>
+      </c>
+      <c r="AH12">
+        <v>-6.5</v>
+      </c>
+      <c r="AI12">
+        <v>15.2</v>
+      </c>
+      <c r="AJ12">
+        <v>3.6</v>
+      </c>
+      <c r="AK12">
+        <v>11.6</v>
+      </c>
+      <c r="AL12">
+        <v>-0.7</v>
+      </c>
+      <c r="AM12">
+        <v>8.9</v>
+      </c>
+      <c r="AN12">
+        <v>-5.6</v>
+      </c>
+      <c r="AO12">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AP12">
+        <v>4.8</v>
+      </c>
+      <c r="AQ12">
+        <v>11.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1997</v>
       </c>
@@ -2937,8 +8321,56 @@
       <c r="AA13">
         <v>2.9</v>
       </c>
+      <c r="AB13">
+        <v>-7.7</v>
+      </c>
+      <c r="AC13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD13">
+        <v>-9</v>
+      </c>
+      <c r="AE13">
+        <v>-1.4</v>
+      </c>
+      <c r="AF13">
+        <v>-9.6</v>
+      </c>
+      <c r="AG13">
+        <v>2.4</v>
+      </c>
+      <c r="AH13">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AI13">
+        <v>-20.8</v>
+      </c>
+      <c r="AJ13">
+        <v>0.7</v>
+      </c>
+      <c r="AK13">
+        <v>-2.1</v>
+      </c>
+      <c r="AL13">
+        <v>2.6</v>
+      </c>
+      <c r="AM13">
+        <v>-1.8</v>
+      </c>
+      <c r="AN13">
+        <v>-0.1</v>
+      </c>
+      <c r="AO13">
+        <v>1.8</v>
+      </c>
+      <c r="AP13">
+        <v>-1.9</v>
+      </c>
+      <c r="AQ13">
+        <v>-13.2</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -3022,8 +8454,56 @@
       <c r="AA14">
         <v>1.6</v>
       </c>
+      <c r="AB14">
+        <v>-7.4</v>
+      </c>
+      <c r="AC14">
+        <v>-5.5</v>
+      </c>
+      <c r="AD14">
+        <v>-9.6</v>
+      </c>
+      <c r="AE14">
+        <v>-9</v>
+      </c>
+      <c r="AF14">
+        <v>15.8</v>
+      </c>
+      <c r="AG14">
+        <v>-21.1</v>
+      </c>
+      <c r="AH14">
+        <v>13.3</v>
+      </c>
+      <c r="AI14">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AJ14">
+        <v>-0.1</v>
+      </c>
+      <c r="AK14">
+        <v>-7.3</v>
+      </c>
+      <c r="AL14">
+        <v>-3.3</v>
+      </c>
+      <c r="AM14">
+        <v>7.9</v>
+      </c>
+      <c r="AN14">
+        <v>8</v>
+      </c>
+      <c r="AO14">
+        <v>-21.5</v>
+      </c>
+      <c r="AP14">
+        <v>2.9</v>
+      </c>
+      <c r="AQ14">
+        <v>-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1999</v>
       </c>
@@ -3107,8 +8587,56 @@
       <c r="AA15">
         <v>1.4</v>
       </c>
+      <c r="AB15">
+        <v>-5</v>
+      </c>
+      <c r="AC15">
+        <v>5.5</v>
+      </c>
+      <c r="AD15">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AE15">
+        <v>14.5</v>
+      </c>
+      <c r="AF15">
+        <v>-5.8</v>
+      </c>
+      <c r="AG15">
+        <v>-22.5</v>
+      </c>
+      <c r="AH15">
+        <v>-15.4</v>
+      </c>
+      <c r="AI15">
+        <v>-9.5</v>
+      </c>
+      <c r="AJ15">
+        <v>0.6</v>
+      </c>
+      <c r="AK15">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="AL15">
+        <v>6.9</v>
+      </c>
+      <c r="AM15">
+        <v>0.7</v>
+      </c>
+      <c r="AN15">
+        <v>-13.6</v>
+      </c>
+      <c r="AO15">
+        <v>-0.6</v>
+      </c>
+      <c r="AP15">
+        <v>-5.6</v>
+      </c>
+      <c r="AQ15">
+        <v>-4.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -3192,8 +8720,56 @@
       <c r="AA16">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AB16">
+        <v>1.5</v>
+      </c>
+      <c r="AC16">
+        <v>6.7</v>
+      </c>
+      <c r="AD16">
+        <v>9.4</v>
+      </c>
+      <c r="AE16">
+        <v>-11.8</v>
+      </c>
+      <c r="AF16">
+        <v>-13.5</v>
+      </c>
+      <c r="AG16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH16">
+        <v>7.4</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1.6</v>
+      </c>
+      <c r="AK16">
+        <v>0.5</v>
+      </c>
+      <c r="AL16">
+        <v>7</v>
+      </c>
+      <c r="AM16">
+        <v>-4</v>
+      </c>
+      <c r="AN16">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AO16">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AP16">
+        <v>-1</v>
+      </c>
+      <c r="AQ16">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -3277,8 +8853,56 @@
       <c r="AA17">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AB17">
+        <v>5.9</v>
+      </c>
+      <c r="AC17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD17">
+        <v>-4.2</v>
+      </c>
+      <c r="AE17">
+        <v>6.9</v>
+      </c>
+      <c r="AF17">
+        <v>21.5</v>
+      </c>
+      <c r="AG17">
+        <v>-5.8</v>
+      </c>
+      <c r="AH17">
+        <v>-1.6</v>
+      </c>
+      <c r="AI17">
+        <v>6.5</v>
+      </c>
+      <c r="AJ17">
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <v>3.8</v>
+      </c>
+      <c r="AL17">
+        <v>6.1</v>
+      </c>
+      <c r="AM17">
+        <v>8.6</v>
+      </c>
+      <c r="AN17">
+        <v>-2.6</v>
+      </c>
+      <c r="AO17">
+        <v>6.1</v>
+      </c>
+      <c r="AP17">
+        <v>3.5</v>
+      </c>
+      <c r="AQ17">
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -3362,8 +8986,56 @@
       <c r="AA18">
         <v>2.1</v>
       </c>
+      <c r="AB18">
+        <v>-6.2</v>
+      </c>
+      <c r="AC18">
+        <v>-7</v>
+      </c>
+      <c r="AD18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE18">
+        <v>-6.3</v>
+      </c>
+      <c r="AF18">
+        <v>-18.8</v>
+      </c>
+      <c r="AG18">
+        <v>11.6</v>
+      </c>
+      <c r="AH18">
+        <v>9.5</v>
+      </c>
+      <c r="AI18">
+        <v>14.5</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.8</v>
+      </c>
+      <c r="AK18">
+        <v>-0.3</v>
+      </c>
+      <c r="AL18">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AM18">
+        <v>-6.2</v>
+      </c>
+      <c r="AN18">
+        <v>10.7</v>
+      </c>
+      <c r="AO18">
+        <v>-9.4</v>
+      </c>
+      <c r="AP18">
+        <v>-4.7</v>
+      </c>
+      <c r="AQ18">
+        <v>5.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2003</v>
       </c>
@@ -3447,8 +9119,56 @@
       <c r="AA19">
         <v>1.9</v>
       </c>
+      <c r="AB19">
+        <v>14.1</v>
+      </c>
+      <c r="AC19">
+        <v>23.3</v>
+      </c>
+      <c r="AD19">
+        <v>37.9</v>
+      </c>
+      <c r="AE19">
+        <v>-8.1</v>
+      </c>
+      <c r="AF19">
+        <v>3.3</v>
+      </c>
+      <c r="AG19">
+        <v>24.1</v>
+      </c>
+      <c r="AH19">
+        <v>-0.6</v>
+      </c>
+      <c r="AI19">
+        <v>0.6</v>
+      </c>
+      <c r="AJ19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK19">
+        <v>9</v>
+      </c>
+      <c r="AL19">
+        <v>20.2</v>
+      </c>
+      <c r="AM19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AN19">
+        <v>31</v>
+      </c>
+      <c r="AO19">
+        <v>6.1</v>
+      </c>
+      <c r="AP19">
+        <v>4.8</v>
+      </c>
+      <c r="AQ19">
+        <v>6.4</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -3532,8 +9252,56 @@
       <c r="AA20">
         <v>0.7</v>
       </c>
+      <c r="AB20">
+        <v>11.9</v>
+      </c>
+      <c r="AC20">
+        <v>1.5</v>
+      </c>
+      <c r="AD20">
+        <v>-7.3</v>
+      </c>
+      <c r="AE20">
+        <v>24.7</v>
+      </c>
+      <c r="AF20">
+        <v>28</v>
+      </c>
+      <c r="AG20">
+        <v>19.5</v>
+      </c>
+      <c r="AH20">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AI20">
+        <v>7.6</v>
+      </c>
+      <c r="AJ20">
+        <v>4.7</v>
+      </c>
+      <c r="AK20">
+        <v>8.9</v>
+      </c>
+      <c r="AL20">
+        <v>2.4</v>
+      </c>
+      <c r="AM20">
+        <v>11.8</v>
+      </c>
+      <c r="AN20">
+        <v>19.3</v>
+      </c>
+      <c r="AO20">
+        <v>14.7</v>
+      </c>
+      <c r="AP20">
+        <v>11.7</v>
+      </c>
+      <c r="AQ20">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -3617,8 +9385,56 @@
       <c r="AA21">
         <v>1.2</v>
       </c>
+      <c r="AB21">
+        <v>-3.4</v>
+      </c>
+      <c r="AC21">
+        <v>4.2</v>
+      </c>
+      <c r="AD21">
+        <v>-26.5</v>
+      </c>
+      <c r="AE21">
+        <v>-2</v>
+      </c>
+      <c r="AF21">
+        <v>-5.5</v>
+      </c>
+      <c r="AG21">
+        <v>-21.1</v>
+      </c>
+      <c r="AH21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AI21">
+        <v>-2</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>-2.4</v>
+      </c>
+      <c r="AL21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AM21">
+        <v>-0.9</v>
+      </c>
+      <c r="AN21">
+        <v>-4.5</v>
+      </c>
+      <c r="AO21">
+        <v>-0.6</v>
+      </c>
+      <c r="AP21">
+        <v>-1.2</v>
+      </c>
+      <c r="AQ21">
+        <v>10.199999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2006</v>
       </c>
@@ -3702,8 +9518,56 @@
       <c r="AA22">
         <v>3.8</v>
       </c>
+      <c r="AB22">
+        <v>-2.8</v>
+      </c>
+      <c r="AC22">
+        <v>-4</v>
+      </c>
+      <c r="AD22">
+        <v>10.8</v>
+      </c>
+      <c r="AE22">
+        <v>8</v>
+      </c>
+      <c r="AF22">
+        <v>-14.8</v>
+      </c>
+      <c r="AG22">
+        <v>-5.7</v>
+      </c>
+      <c r="AH22">
+        <v>7.5</v>
+      </c>
+      <c r="AI22">
+        <v>8</v>
+      </c>
+      <c r="AJ22">
+        <v>0.6</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>-3.5</v>
+      </c>
+      <c r="AM22">
+        <v>-4.5</v>
+      </c>
+      <c r="AN22">
+        <v>-0.4</v>
+      </c>
+      <c r="AO22">
+        <v>-3</v>
+      </c>
+      <c r="AP22">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AQ22">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2007</v>
       </c>
@@ -3787,8 +9651,56 @@
       <c r="AA23">
         <v>3.1</v>
       </c>
+      <c r="AB23">
+        <v>23</v>
+      </c>
+      <c r="AC23">
+        <v>7.8</v>
+      </c>
+      <c r="AD23">
+        <v>61.2</v>
+      </c>
+      <c r="AE23">
+        <v>11.2</v>
+      </c>
+      <c r="AF23">
+        <v>48.2</v>
+      </c>
+      <c r="AG23">
+        <v>42.5</v>
+      </c>
+      <c r="AH23">
+        <v>8</v>
+      </c>
+      <c r="AI23">
+        <v>11.2</v>
+      </c>
+      <c r="AJ23">
+        <v>6.6</v>
+      </c>
+      <c r="AK23">
+        <v>14.2</v>
+      </c>
+      <c r="AL23">
+        <v>2.7</v>
+      </c>
+      <c r="AM23">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AN23">
+        <v>17.5</v>
+      </c>
+      <c r="AO23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP23">
+        <v>12.8</v>
+      </c>
+      <c r="AQ23">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -3872,8 +9784,56 @@
       <c r="AA24">
         <v>5.5</v>
       </c>
+      <c r="AB24">
+        <v>11.4</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>17.7</v>
+      </c>
+      <c r="AE24">
+        <v>-0.4</v>
+      </c>
+      <c r="AF24">
+        <v>-4.3</v>
+      </c>
+      <c r="AG24">
+        <v>47.9</v>
+      </c>
+      <c r="AH24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AI24">
+        <v>-0.4</v>
+      </c>
+      <c r="AJ24">
+        <v>6.8</v>
+      </c>
+      <c r="AK24">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AL24">
+        <v>5.2</v>
+      </c>
+      <c r="AM24">
+        <v>4</v>
+      </c>
+      <c r="AN24">
+        <v>42.7</v>
+      </c>
+      <c r="AO24">
+        <v>-2</v>
+      </c>
+      <c r="AP24">
+        <v>3.9</v>
+      </c>
+      <c r="AQ24">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2009</v>
       </c>
@@ -3957,8 +9917,56 @@
       <c r="AA25">
         <v>5.5506672860128896</v>
       </c>
+      <c r="AB25">
+        <v>-17.7</v>
+      </c>
+      <c r="AC25">
+        <v>-10.4</v>
+      </c>
+      <c r="AD25">
+        <v>-26.4</v>
+      </c>
+      <c r="AE25">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AF25">
+        <v>-30.1</v>
+      </c>
+      <c r="AG25">
+        <v>-13.7</v>
+      </c>
+      <c r="AH25">
+        <v>-5.9</v>
+      </c>
+      <c r="AI25">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AJ25">
+        <v>-1.6</v>
+      </c>
+      <c r="AK25">
+        <v>-8.6</v>
+      </c>
+      <c r="AL25">
+        <v>-7.4</v>
+      </c>
+      <c r="AM25">
+        <v>-14</v>
+      </c>
+      <c r="AN25">
+        <v>-23.3</v>
+      </c>
+      <c r="AO25">
+        <v>-11.5</v>
+      </c>
+      <c r="AP25">
+        <v>2.1</v>
+      </c>
+      <c r="AQ25">
+        <v>-5.9</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -4042,8 +10050,56 @@
       <c r="AA26">
         <v>2.1879700998013099</v>
       </c>
+      <c r="AB26">
+        <v>13.3</v>
+      </c>
+      <c r="AC26">
+        <v>14.6</v>
+      </c>
+      <c r="AD26">
+        <v>0.5</v>
+      </c>
+      <c r="AE26">
+        <v>12.1</v>
+      </c>
+      <c r="AF26">
+        <v>27.1</v>
+      </c>
+      <c r="AG26">
+        <v>0.7</v>
+      </c>
+      <c r="AH26">
+        <v>10</v>
+      </c>
+      <c r="AI26">
+        <v>12.1</v>
+      </c>
+      <c r="AJ26">
+        <v>3.9</v>
+      </c>
+      <c r="AK26">
+        <v>3.4</v>
+      </c>
+      <c r="AL26">
+        <v>10.3</v>
+      </c>
+      <c r="AM26">
+        <v>10.8</v>
+      </c>
+      <c r="AN26">
+        <v>4.3</v>
+      </c>
+      <c r="AO26">
+        <v>23.2</v>
+      </c>
+      <c r="AP26">
+        <v>1.4</v>
+      </c>
+      <c r="AQ26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -4127,8 +10183,56 @@
       <c r="AA27">
         <v>3.3</v>
       </c>
+      <c r="AB27">
+        <v>23.6</v>
+      </c>
+      <c r="AC27">
+        <v>22.1</v>
+      </c>
+      <c r="AD27">
+        <v>16.5</v>
+      </c>
+      <c r="AE27">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AF27">
+        <v>23.5</v>
+      </c>
+      <c r="AG27">
+        <v>24</v>
+      </c>
+      <c r="AH27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AI27">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AJ27">
+        <v>6.3</v>
+      </c>
+      <c r="AK27">
+        <v>12</v>
+      </c>
+      <c r="AL27">
+        <v>15</v>
+      </c>
+      <c r="AM27">
+        <v>12.6</v>
+      </c>
+      <c r="AN27">
+        <v>29.3</v>
+      </c>
+      <c r="AO27">
+        <v>12.5</v>
+      </c>
+      <c r="AP27">
+        <v>-1.5</v>
+      </c>
+      <c r="AQ27">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -4212,8 +10316,56 @@
       <c r="AA28">
         <v>3.3</v>
       </c>
+      <c r="AB28">
+        <v>4.1970722214851399</v>
+      </c>
+      <c r="AC28">
+        <v>8.6047760902476096</v>
+      </c>
+      <c r="AD28">
+        <v>1.36902329382917</v>
+      </c>
+      <c r="AE28">
+        <v>1.1186632681959801</v>
+      </c>
+      <c r="AF28">
+        <v>-8.1137923400487004</v>
+      </c>
+      <c r="AG28">
+        <v>13.1896486301889</v>
+      </c>
+      <c r="AH28">
+        <v>-19.788197113331599</v>
+      </c>
+      <c r="AI28">
+        <v>-2.6331007363429801</v>
+      </c>
+      <c r="AJ28">
+        <v>2.6</v>
+      </c>
+      <c r="AK28">
+        <v>4.7571595684762</v>
+      </c>
+      <c r="AL28">
+        <v>9.9875501452482904</v>
+      </c>
+      <c r="AM28">
+        <v>-1.56117066530541</v>
+      </c>
+      <c r="AN28">
+        <v>-1.96239204110636</v>
+      </c>
+      <c r="AO28">
+        <v>-4.1051756391602803</v>
+      </c>
+      <c r="AP28">
+        <v>11.1642178556676</v>
+      </c>
+      <c r="AQ28">
+        <v>2.0307395307395</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -4297,8 +10449,56 @@
       <c r="AA29">
         <v>-1.7</v>
       </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29">
+        <v>1.4</v>
+      </c>
+      <c r="AD29">
+        <v>9.4</v>
+      </c>
+      <c r="AE29">
+        <v>1.8</v>
+      </c>
+      <c r="AF29">
+        <v>8.1</v>
+      </c>
+      <c r="AG29">
+        <v>-1.9</v>
+      </c>
+      <c r="AH29">
+        <v>26.4</v>
+      </c>
+      <c r="AI29">
+        <v>-3</v>
+      </c>
+      <c r="AJ29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK29">
+        <v>1.4</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>3.6</v>
+      </c>
+      <c r="AN29">
+        <v>-6.7</v>
+      </c>
+      <c r="AO29">
+        <v>3.6</v>
+      </c>
+      <c r="AP29">
+        <v>3.8</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -4382,8 +10582,56 @@
       <c r="AA30">
         <v>-0.8</v>
       </c>
+      <c r="AB30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC30">
+        <v>22.8</v>
+      </c>
+      <c r="AD30">
+        <v>17.8</v>
+      </c>
+      <c r="AE30">
+        <v>2.7</v>
+      </c>
+      <c r="AF30">
+        <v>19.8</v>
+      </c>
+      <c r="AG30">
+        <v>-12.4</v>
+      </c>
+      <c r="AH30">
+        <v>-1.9</v>
+      </c>
+      <c r="AI30">
+        <v>-6.7</v>
+      </c>
+      <c r="AJ30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AK30">
+        <v>3.2</v>
+      </c>
+      <c r="AL30">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AM30">
+        <v>11</v>
+      </c>
+      <c r="AN30">
+        <v>-6.6</v>
+      </c>
+      <c r="AO30">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AP30">
+        <v>4.3</v>
+      </c>
+      <c r="AQ30">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -4467,8 +10715,56 @@
       <c r="AA31">
         <v>3.2</v>
       </c>
+      <c r="AB31">
+        <v>-13.9</v>
+      </c>
+      <c r="AC31">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AD31">
+        <v>31.9</v>
+      </c>
+      <c r="AE31">
+        <v>-0.1</v>
+      </c>
+      <c r="AF31">
+        <v>-30.1</v>
+      </c>
+      <c r="AG31">
+        <v>-24.7</v>
+      </c>
+      <c r="AH31">
+        <v>3.2</v>
+      </c>
+      <c r="AI31">
+        <v>-19.5</v>
+      </c>
+      <c r="AJ31">
+        <v>-1.3</v>
+      </c>
+      <c r="AK31">
+        <v>-6.2</v>
+      </c>
+      <c r="AL31">
+        <v>3.4</v>
+      </c>
+      <c r="AM31">
+        <v>-12.7</v>
+      </c>
+      <c r="AN31">
+        <v>-5.5</v>
+      </c>
+      <c r="AO31">
+        <v>-23.4</v>
+      </c>
+      <c r="AP31">
+        <v>-1.6</v>
+      </c>
+      <c r="AQ31">
+        <v>-10</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -4552,353 +10848,58 @@
       <c r="AA32">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34">
-        <f>CORREL(C3:C32,J3:J32)</f>
-        <v>0.27234593375966004</v>
-      </c>
-      <c r="K34">
-        <f>CORREL(C3:C32,K3:K32)</f>
-        <v>0.41272557636737345</v>
-      </c>
-      <c r="L34">
-        <f>CORREL(C3:C32,L3:L32)</f>
-        <v>0.4928155582985696</v>
-      </c>
-      <c r="M34">
-        <f>CORREL(C3:C32,M3:M32)</f>
-        <v>0.15262927498925269</v>
-      </c>
-      <c r="N34">
-        <f>CORREL(C3:C32,N3:N32)</f>
-        <v>1.2770593006057349E-4</v>
-      </c>
-      <c r="O34">
-        <f>CORREL(C3:C32,O3:O32)</f>
-        <v>0.26416251716502198</v>
-      </c>
-      <c r="P34">
-        <f>CORREL(C3:C32,P3:P32)</f>
-        <v>0.16390767396498035</v>
-      </c>
-      <c r="Q34">
-        <f>CORREL(C3:C32,Q3:Q32)</f>
-        <v>0.18430495491108517</v>
-      </c>
-      <c r="R34">
-        <f>CORREL(C3:C32,R3:R32)</f>
-        <v>0.26186187697011465</v>
-      </c>
-      <c r="S34">
-        <f>CORREL(C3:C32,S3:S32)</f>
-        <v>0.23104192607092527</v>
-      </c>
-      <c r="T34">
-        <f>CORREL(C3:C32,T3:T32)</f>
-        <v>0.24313465819152613</v>
-      </c>
-      <c r="U34">
-        <f>CORREL(C3:C32,U3:U32)</f>
-        <v>0.15395993256985346</v>
-      </c>
-      <c r="V34">
-        <f>CORREL(C3:C32,V3:V32)</f>
-        <v>0.42219333423643762</v>
-      </c>
-      <c r="W34">
-        <f>CORREL(C3:C32,W3:W32)</f>
-        <v>9.0943235286532198E-2</v>
-      </c>
-      <c r="X34">
-        <f>CORREL(C3:C32,X3:X32)</f>
-        <v>0.22956919473016094</v>
-      </c>
-      <c r="Y34">
-        <f>CORREL(C3:C32,Y3:Y32)</f>
-        <v>0.51320653253972104</v>
-      </c>
-      <c r="Z34">
-        <f>CORREL(C3:C32,Z3:Z32)</f>
-        <v>0.11650351654103477</v>
-      </c>
-      <c r="AA34">
-        <f>CORREL(C3:C32,AA3:AA32)</f>
-        <v>5.3565803724643288E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35">
-        <f>CORREL(G3:G32,J3:J32)</f>
-        <v>0.26942812074554051</v>
-      </c>
-      <c r="K35">
-        <f>CORREL(G3:G32,K3:K32)</f>
-        <v>0.50786270847367054</v>
-      </c>
-      <c r="L35">
-        <f>CORREL(G3:G32,L3:L32)</f>
-        <v>0.47303760023082525</v>
-      </c>
-      <c r="M35">
-        <f>CORREL(G3:G32,M3:M32)</f>
-        <v>0.11120985003840066</v>
-      </c>
-      <c r="N35">
-        <f>CORREL(G3:G32,N3:N32)</f>
-        <v>-1.3909390013292765E-2</v>
-      </c>
-      <c r="O35">
-        <f>CORREL(G3:G32,O3:O32)</f>
-        <v>0.36014148549434699</v>
-      </c>
-      <c r="P35">
-        <f>CORREL(G3:G32,P3:P32)</f>
-        <v>0.17671468316871272</v>
-      </c>
-      <c r="Q35">
-        <f>CORREL(G3:G32,Q3:Q32)</f>
-        <v>0.18899263169967154</v>
-      </c>
-      <c r="R35">
-        <f>CORREL(G3:G32,R3:R32)</f>
-        <v>0.29407884166419734</v>
-      </c>
-      <c r="S35">
-        <f>CORREL(G3:G32,S3:S32)</f>
-        <v>0.23169632984402722</v>
-      </c>
-      <c r="T35">
-        <f>CORREL(G3:G32,T3:T32)</f>
-        <v>0.24435604495380311</v>
-      </c>
-      <c r="U35">
-        <f>CORREL(G3:G32,U3:U32)</f>
-        <v>0.1543963762656545</v>
-      </c>
-      <c r="V35">
-        <f>CORREL(G3:G32,V3:V32)</f>
-        <v>0.50634382658352906</v>
-      </c>
-      <c r="W35">
-        <f>CORREL(G3:G32,W3:W32)</f>
-        <v>0.12393885679373441</v>
-      </c>
-      <c r="X35">
-        <f>CORREL(G3:G32,X3:X32)</f>
-        <v>0.3357263154715891</v>
-      </c>
-      <c r="Y35">
-        <f>CORREL(G3:G32,Y3:Y32)</f>
-        <v>0.56744086203575372</v>
-      </c>
-      <c r="Z35">
-        <f>CORREL(G3:G32,Z3:Z32)</f>
-        <v>0.10949088170982885</v>
-      </c>
-      <c r="AA35">
-        <f>CORREL(G3:G32,AA3:AA32)</f>
-        <v>2.4165851802004104E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36">
-        <f>RSQ(C3:C32,J3:J32)</f>
-        <v>7.4172307635421139E-2</v>
-      </c>
-      <c r="K36">
-        <f>RSQ(C3:C32,K3:K32)</f>
-        <v>0.17034240138778056</v>
-      </c>
-      <c r="L36">
-        <f>RSQ(C3:C32,L3:L32)</f>
-        <v>0.24286717450113074</v>
-      </c>
-      <c r="M36">
-        <f>RSQ(C3:C32,M3:M32)</f>
-        <v>2.3295695583744908E-2</v>
-      </c>
-      <c r="N36">
-        <f>RSQ(C3:C32,N3:N32)</f>
-        <v>1.6308804572636079E-8</v>
-      </c>
-      <c r="O36">
-        <f>RSQ(C3:C32,O3:O32)</f>
-        <v>6.978183547496053E-2</v>
-      </c>
-      <c r="P36">
-        <f>RSQ(C3:C32,P3:P32)</f>
-        <v>2.6865725584610287E-2</v>
-      </c>
-      <c r="Q36">
-        <f>RSQ(C3:C32,Q3:Q32)</f>
-        <v>3.3968316404777127E-2</v>
-      </c>
-      <c r="R36">
-        <f>RSQ(C3:C32,R3:R32)</f>
-        <v>6.8571642610311456E-2</v>
-      </c>
-      <c r="S36">
-        <f>RSQ(C3:C32,S3:S32)</f>
-        <v>5.3380371602562912E-2</v>
-      </c>
-      <c r="T36">
-        <f>RSQ(C3:C32,T3:T32)</f>
-        <v>5.9114462013910248E-2</v>
-      </c>
-      <c r="U36">
-        <f>RSQ(C3:C32,U3:U32)</f>
-        <v>2.3703660836913824E-2</v>
-      </c>
-      <c r="V36">
-        <f>RSQ(C3:C32,V3:V32)</f>
-        <v>0.17824721147368033</v>
-      </c>
-      <c r="W36">
-        <f>RSQ(C3:C32,W3:W32)</f>
-        <v>8.2706720443815555E-3</v>
-      </c>
-      <c r="X36">
-        <f>RSQ(C3:C32,X3:X32)</f>
-        <v>5.2702015169054553E-2</v>
-      </c>
-      <c r="Y36">
-        <f>RSQ(C3:C32,Y3:Y32)</f>
-        <v>0.26338094504144366</v>
-      </c>
-      <c r="Z36">
-        <f>RSQ(C3:C32,Z3:Z32)</f>
-        <v>1.3573069366427166E-2</v>
-      </c>
-      <c r="AA36">
-        <f>RSQ(C3:C32,AA3:AA32)</f>
-        <v>2.8692953286670088E-7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37">
-        <f>RSQ(G3:G32,J3:J32)</f>
-        <v>7.2591512248473558E-2</v>
-      </c>
-      <c r="K37">
-        <f>RSQ(G3:G32,K3:K32)</f>
-        <v>0.25792453065821247</v>
-      </c>
-      <c r="L37">
-        <f>RSQ(G3:G32,L3:L32)</f>
-        <v>0.22376457123213805</v>
-      </c>
-      <c r="M37">
-        <f>RSQ(G3:G32,M3:M32)</f>
-        <v>1.2367630745563565E-2</v>
-      </c>
-      <c r="N37">
-        <f>RSQ(G3:G32,N3:N32)</f>
-        <v>1.9347113054188846E-4</v>
-      </c>
-      <c r="O37">
-        <f>RSQ(G3:G32,O3:O32)</f>
-        <v>0.12970188957407491</v>
-      </c>
-      <c r="P37">
-        <f>RSQ(G3:G32,P3:P32)</f>
-        <v>3.1228079247418529E-2</v>
-      </c>
-      <c r="Q37">
-        <f>RSQ(G3:G32,Q3:Q32)</f>
-        <v>3.5718214836767702E-2</v>
-      </c>
-      <c r="R37">
-        <f>RSQ(G3:G32,R3:R32)</f>
-        <v>8.6482365114556078E-2</v>
-      </c>
-      <c r="S37">
-        <f>RSQ(G3:G32,S3:S32)</f>
-        <v>5.3683189263192245E-2</v>
-      </c>
-      <c r="T37">
-        <f>RSQ(G3:G32,T3:T32)</f>
-        <v>5.9709876705465063E-2</v>
-      </c>
-      <c r="U37">
-        <f>RSQ(G3:G32,U3:U32)</f>
-        <v>2.3838241003965553E-2</v>
-      </c>
-      <c r="V37">
-        <f>RSQ(G3:G32,V3:V32)</f>
-        <v>0.25638407071925096</v>
-      </c>
-      <c r="W37">
-        <f>RSQ(G3:G32,W3:W32)</f>
-        <v>1.5360840223337811E-2</v>
-      </c>
-      <c r="X37">
-        <f>RSQ(G3:G32,X3:X32)</f>
-        <v>0.11271215890012901</v>
-      </c>
-      <c r="Y37">
-        <f>RSQ(G3:G32,Y3:Y32)</f>
-        <v>0.32198913190787931</v>
-      </c>
-      <c r="Z37">
-        <f>RSQ(G3:G32,Z3:Z32)</f>
-        <v>1.1988253177595736E-2</v>
-      </c>
-      <c r="AA37">
-        <f>RSQ(G3:G32,AA3:AA32)</f>
-        <v>5.8398839331642513E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39">
-        <f>AVERAGE(J34:AA34)</f>
-        <v>0.23366494780886418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40">
-        <f>AVERAGE(J35:AA35)</f>
-        <v>0.25917288205344424</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41">
-        <f>AVERAGE(J36:AA36)</f>
-        <v>7.5679878331636002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ref="B42" si="2">AVERAGE(J37:AA37)</f>
-        <v>9.4790111948993283E-2</v>
+      <c r="AB32">
+        <v>-10.7</v>
+      </c>
+      <c r="AC32">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AD32">
+        <v>-59.1</v>
+      </c>
+      <c r="AE32">
+        <v>11.6</v>
+      </c>
+      <c r="AF32">
+        <v>-5</v>
+      </c>
+      <c r="AG32">
+        <v>2.9</v>
+      </c>
+      <c r="AH32">
+        <v>0.9</v>
+      </c>
+      <c r="AI32">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AJ32">
+        <v>-2.4</v>
+      </c>
+      <c r="AK32">
+        <v>-4.7</v>
+      </c>
+      <c r="AL32">
+        <v>-15.5</v>
+      </c>
+      <c r="AM32">
+        <v>-1.7</v>
+      </c>
+      <c r="AN32">
+        <v>-0.8</v>
+      </c>
+      <c r="AO32">
+        <v>-1.9</v>
+      </c>
+      <c r="AP32">
+        <v>-4.3</v>
+      </c>
+      <c r="AQ32">
+        <v>-7.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4906,8 +10907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="Q130" sqref="Q130"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4921,8 +10922,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_analysis/DataAnalysisCrudeRefined (Scatter Plot).xlsx
+++ b/data_analysis/DataAnalysisCrudeRefined (Scatter Plot).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -210,4732 +210,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Yearly PPI Values For Agricultural Products (1986-2016)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Crude foodstuffs and feedstuffs PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AB$2:$AB$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-1.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-6.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-17.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.1970722214851399</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-13.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-10.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AC$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Farm Level Cattle PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AC$2:$AC$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-2.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-10.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.6047760902476096</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-19.399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AD$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Farm Level Eggs PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AD$2:$AD$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-7.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-26.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>61.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-26.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.36902329382917</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-59.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Farm Level Fruit PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AE$2:$AE$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-35.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-11.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-6.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-8.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1186632681959801</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AF$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Farm Level Milk PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AF$2:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-2.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-11.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-9.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-5.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-18.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-14.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-4.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-30.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8.1137923400487004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-30.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AG$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Farm Level Soybeans PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AG$2:$AG$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-11.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-21.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-22.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-5.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-21.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-5.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>47.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-13.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.1896486301889</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-12.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-24.7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AH$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Farm Level Vegetables PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AH$2:$AH$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-1.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-12.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-15.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-5.9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-19.788197113331599</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AI$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Farm Level Wheat PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AI$2:$AI$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-12.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-20.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-9.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.6331007363429801</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-6.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-19.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-20.399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AJ$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Finished Consumer Foods PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AJ$2:$AJ$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AK$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Intermediate Foods and Feeds PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AK$2:$AK$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-8.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.7571595684762</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-6.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-4.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AL$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wholesale Beef PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AL$2:$AL$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-7.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.9875501452482904</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-15.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AM$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wholesale Dairy PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AM$2:$AM$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-6.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.56117066530541</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-12.7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AN$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wholesale Fats and Oils PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AN$2:$AN$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-23.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-5.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-4.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-23.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.96239204110636</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-6.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-6.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AO$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wholesale Pork PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AO$2:$AO$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-21.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-9.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-11.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-4.1051756391602803</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-23.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AP$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wholesale Poulty PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AP$2:$AP$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-11.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-5.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-4.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.1642178556676</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-4.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AQ$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wholesale Wheat Flour PPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AQ$2:$AQ$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-5.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-5.9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0307395307395</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-7.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="514675360"/>
-        <c:axId val="514671832"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="514675360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="514671832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="514671832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>PPI</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Va</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>lue</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="514675360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5624,7 +899,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6237,7 +1512,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6621,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ32"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA1" activeCellId="17" sqref="J1:J1048576 K1:K1048576 L1:L1048576 M1:M1048576 N1:N1048576 O1:O1048576 P1:P1048576 Q1:Q1048576 R1:R1048576 S1:S1048576 T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576 X1:X1048576 Y1:Y1048576 Z1:Z1048576 AA1:AA1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10899,7 +6174,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10937,8 +6211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
